--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA0C9F-640B-4A6B-9D17-A364875FFC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF683FC-6C0D-45FC-8CB5-8811F8987F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF683FC-6C0D-45FC-8CB5-8811F8987F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E1226-A0CB-4F64-9A04-BB0FBE3A9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -483,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -515,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -566,6 +572,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +915,7 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -916,7 +923,7 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -924,7 +931,7 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -932,7 +939,7 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -940,7 +947,7 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -948,7 +955,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -956,12 +963,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -969,7 +976,7 @@
       <c r="B12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -977,7 +984,7 @@
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -985,7 +992,7 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -993,7 +1000,7 @@
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1001,7 +1008,7 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1065,7 +1072,7 @@
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="18" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E1226-A0CB-4F64-9A04-BB0FBE3A9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2221FE-D6DF-4594-842D-FB25C17BD61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="B2:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2221FE-D6DF-4594-842D-FB25C17BD61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A01F71-6FE8-498F-A940-7918BE4E160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="B2:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1024,7 @@
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A01F71-6FE8-498F-A940-7918BE4E160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DC9304-F58E-4250-A050-ED109099E063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -890,7 +890,7 @@
   <dimension ref="B2:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DC9304-F58E-4250-A050-ED109099E063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0336B328-4891-451F-96FD-CE68DC42D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0336B328-4891-451F-96FD-CE68DC42D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812688C0-0F8A-4D4C-84EC-447AC498CDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -573,6 +573,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +918,7 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -920,7 +926,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -928,7 +934,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -936,7 +942,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -944,7 +950,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -952,7 +958,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -981,7 +987,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -989,7 +995,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -997,7 +1003,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -1005,7 +1011,7 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1013,7 +1019,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -1056,7 +1062,7 @@
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1080,7 +1086,7 @@
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1088,7 +1094,7 @@
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="18" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812688C0-0F8A-4D4C-84EC-447AC498CDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF2961-BDF4-4E03-8D83-5D85D594A080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="18" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -1099,12 +1099,12 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF2961-BDF4-4E03-8D83-5D85D594A080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6985367B-95D7-4743-BF4D-14DE31446492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t xml:space="preserve">Query syntax </t>
   </si>
   <si>
-    <t>Methos Syntax</t>
-  </si>
-  <si>
     <t>Query a collection of objects</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">Web Services and WCF                                            </t>
+  </si>
+  <si>
+    <t>Method Syntax</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,10 +907,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>15</v>
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -1110,13 +1110,13 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1"/>
     </row>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1"/>
     </row>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1"/>
     </row>
@@ -1255,19 +1255,19 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1"/>
     </row>
@@ -1281,61 +1281,61 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -1349,97 +1349,97 @@
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1"/>
     </row>
@@ -1449,47 +1449,47 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -1498,61 +1498,61 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" s="1"/>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6985367B-95D7-4743-BF4D-14DE31446492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33904499-CDA5-43A9-9BF1-C619E4D20679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33904499-CDA5-43A9-9BF1-C619E4D20679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079BF65-9EE2-48D9-B73D-D36F310E5D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -577,6 +577,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,19 +1125,19 @@
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
@@ -1146,7 +1149,7 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
@@ -1168,13 +1171,13 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079BF65-9EE2-48D9-B73D-D36F310E5D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F7400-3B39-45C0-81F6-09C26426EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -539,9 +539,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -580,6 +577,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,50 +921,50 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -972,12 +972,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -985,177 +985,177 @@
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="1"/>
@@ -1165,25 +1165,25 @@
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1193,37 +1193,37 @@
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="1"/>
@@ -1233,37 +1233,37 @@
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1"/>
@@ -1275,7 +1275,7 @@
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -1289,55 +1289,55 @@
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="1"/>
@@ -1423,7 +1423,7 @@
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="1"/>
@@ -1435,13 +1435,13 @@
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C86" s="1"/>
@@ -1451,56 +1451,56 @@
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="1"/>
@@ -1542,19 +1542,19 @@
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F7400-3B39-45C0-81F6-09C26426EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C91CB4-A7A8-4129-8F94-3A9347EF1A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -566,9 +566,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -581,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,50 +921,50 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -972,12 +972,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -985,177 +985,177 @@
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="1"/>
@@ -1171,19 +1171,19 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1199,31 +1199,31 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C91CB4-A7A8-4129-8F94-3A9347EF1A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41145565-85B3-4D44-A4D8-CE219887660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -545,9 +545,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -581,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +888,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,50 +921,50 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -972,12 +972,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -985,177 +985,177 @@
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="1"/>
@@ -1171,19 +1171,19 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1199,31 +1199,31 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="1"/>
@@ -1239,37 +1239,37 @@
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="1"/>
@@ -1289,55 +1289,55 @@
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1"/>
@@ -1451,56 +1451,56 @@
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="12"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41145565-85B3-4D44-A4D8-CE219887660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC1590-0EB7-4368-9AEF-50403E962F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1319,7 @@
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC1590-0EB7-4368-9AEF-50403E962F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164943A-E86A-4B49-A163-040E7698DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -543,9 +543,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -898,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,50 +918,50 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -972,12 +969,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -985,177 +982,177 @@
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="1"/>
@@ -1171,19 +1168,19 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1199,31 +1196,31 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="1"/>
@@ -1239,37 +1236,37 @@
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="1"/>
@@ -1289,55 +1286,55 @@
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="1"/>
@@ -1435,7 +1432,7 @@
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1"/>
@@ -1451,56 +1448,56 @@
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="11"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164943A-E86A-4B49-A163-040E7698DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E986A7B-8392-4793-AE41-2E4D85693666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,31 +1354,31 @@
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="1"/>
@@ -1402,7 +1402,7 @@
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="1"/>
@@ -1426,7 +1426,7 @@
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E986A7B-8392-4793-AE41-2E4D85693666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3C96F-92C1-4C29-B635-650DFBBC8FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1408,7 @@
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3C96F-92C1-4C29-B635-650DFBBC8FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F44A3B0-6A1B-4889-9084-6867EC0B76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F44A3B0-6A1B-4889-9084-6867EC0B76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E406132-C479-44B1-8F39-A813892E9526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -543,9 +543,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,50 +915,50 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -969,12 +966,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -982,177 +979,177 @@
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="1"/>
@@ -1168,19 +1165,19 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1196,31 +1193,31 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="1"/>
@@ -1236,37 +1233,37 @@
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="1"/>
@@ -1286,55 +1283,55 @@
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="1"/>
@@ -1354,61 +1351,61 @@
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="1"/>
@@ -1426,13 +1423,13 @@
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1"/>
@@ -1448,56 +1445,56 @@
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="10"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E406132-C479-44B1-8F39-A813892E9526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B84C5-862B-446C-B881-9FC854DA9E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -575,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1414,7 @@
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="1"/>
@@ -1429,7 +1432,7 @@
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1"/>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B84C5-862B-446C-B881-9FC854DA9E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B37E9A-8451-4AFF-B3B2-7A66921E6260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -551,12 +551,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -578,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,50 +915,50 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -969,12 +966,12 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -982,177 +979,177 @@
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="1"/>
@@ -1168,19 +1165,19 @@
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="1"/>
@@ -1196,31 +1193,31 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="1"/>
@@ -1236,37 +1233,37 @@
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="1"/>
@@ -1286,55 +1283,55 @@
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="1"/>
@@ -1354,85 +1351,85 @@
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1"/>
@@ -1448,47 +1445,47 @@
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="15" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Contents.xlsx
+++ b/Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Banu\Medusind\M_B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B37E9A-8451-4AFF-B3B2-7A66921E6260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58AF0E-A43E-4B09-AF89-4532135CD30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{65638B01-F78A-4D79-B924-A215ED419263}"/>
   </bookViews>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1085E8FD-83CE-480C-BA28-A761F4AEF31A}">
   <dimension ref="B2:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,31 +1500,31 @@
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C103" s="1"/>
